--- a/results/xls/Results.xlsx
+++ b/results/xls/Results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="31760" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="3000" yWindow="440" windowWidth="34840" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Test 1 Results</t>
   </si>
@@ -92,31 +92,34 @@
     <t>Finalise Results</t>
   </si>
   <si>
-    <t>Deployment war</t>
-  </si>
-  <si>
-    <t>Camunda Deployment</t>
-  </si>
-  <si>
     <t>Image Fetch</t>
   </si>
   <si>
-    <t>Docker Conputation</t>
-  </si>
-  <si>
     <t>CallBack Received</t>
   </si>
   <si>
-    <t>Local payload sent yes</t>
-  </si>
-  <si>
-    <t>Local payload  sent no</t>
-  </si>
-  <si>
-    <t>Remote payload sent no</t>
-  </si>
-  <si>
-    <t>Remote payload sent yes</t>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local payload not  sent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local payload sent </t>
+  </si>
+  <si>
+    <t>Remote payload not sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote payload sent </t>
+  </si>
+  <si>
+    <t>Docker Computation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer of mist files </t>
+  </si>
+  <si>
+    <t>Payload storage &amp; War Deployment</t>
   </si>
 </sst>
 </file>
@@ -202,6 +205,1322 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.067671151594849"/>
+          <c:y val="0.150703231061634"/>
+          <c:w val="0.692411356691296"/>
+          <c:h val="0.740502642649121"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer of mist files </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Local payload not  sent </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local payload sent </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Remote payload not sent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Remote payload sent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.104899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Payload storage &amp; War Deployment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Local payload not  sent </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local payload sent </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Remote payload not sent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Remote payload sent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.0484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.6121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.90925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.4394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Image Fetch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Local payload not  sent </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local payload sent </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Remote payload not sent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Remote payload sent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23.2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.08675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Docker Computation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Local payload not  sent </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local payload sent </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Remote payload not sent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Remote payload sent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.13289999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.62475000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.9562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CallBack Received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$2:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Local payload not  sent </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local payload sent </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Remote payload not sent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Remote payload sent </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2014339712"/>
+        <c:axId val="2014341488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2014339712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> case</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014341488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2014341488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014339712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.760367400612602"/>
+          <c:y val="0.271619233332511"/>
+          <c:w val="0.239632636556726"/>
+          <c:h val="0.297544144308302"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R12" zoomScale="220" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +1799,7 @@
     <col min="15" max="15" width="10.83203125" style="5"/>
     <col min="16" max="16" width="18.83203125" customWidth="1"/>
     <col min="17" max="17" width="15" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
     <col min="19" max="19" width="21.33203125" customWidth="1"/>
     <col min="20" max="20" width="19.83203125" customWidth="1"/>
     <col min="21" max="21" width="20.6640625" customWidth="1"/>
@@ -508,17 +1827,20 @@
       <c r="N2" t="s">
         <v>3</v>
       </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
         <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -568,7 +1890,7 @@
         <v>0.39939999999999998</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="S3">
         <v>0.39939999999999998</v>
@@ -578,6 +1900,9 @@
       </c>
       <c r="U3">
         <v>0.83350000000000013</v>
+      </c>
+      <c r="V3">
+        <v>13.744</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -587,13 +1912,19 @@
       <c r="H4" s="1"/>
       <c r="N4" s="2"/>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="S4">
         <v>17.048400000000001</v>
       </c>
       <c r="T4">
         <v>51.612100000000005</v>
+      </c>
+      <c r="U4">
+        <v>6.9092500000000001</v>
+      </c>
+      <c r="V4">
+        <v>42.439399999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -643,12 +1974,18 @@
         <v>17.048400000000001</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S5">
         <v>23.202200000000001</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>45.086749999999995</v>
+      </c>
+      <c r="V5">
         <v>0</v>
       </c>
     </row>
@@ -659,13 +1996,19 @@
       <c r="H6" s="1"/>
       <c r="N6" s="2"/>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S6">
         <v>73.132899999999992</v>
       </c>
       <c r="T6">
         <v>106.982</v>
+      </c>
+      <c r="U6">
+        <v>67.624750000000006</v>
+      </c>
+      <c r="V6">
+        <v>100.9562</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -715,13 +2058,19 @@
         <v>23.202200000000001</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S7">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="T7">
         <v>2.06E-2</v>
+      </c>
+      <c r="U7">
+        <v>2.1750000000000002E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.44419999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1517,5 +2866,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>